--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoShop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25763F50-64D1-467C-BD5E-20E857C87B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB235B-282F-45B1-86ED-1D452150EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DemoShop" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>TC_003</t>
+  </si>
+  <si>
+    <t>desktopCount</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,29 +125,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,21 +419,22 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" customWidth="1"/>
-    <col min="7" max="7" width="39.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -464,9 +456,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -488,8 +482,9 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -511,8 +506,11 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -534,8 +532,9 @@
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -543,8 +542,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -552,8 +552,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -561,8 +562,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -570,8 +572,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -579,8 +582,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -588,6 +592,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
